--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_asterisks_tilde_validation.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8844_SPR_asterisks_tilde_validation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Steps</t>
   </si>
@@ -101,16 +101,29 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>ultValue</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>ResUlt</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,7 +146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485" rgb="9BBB59"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,8 +192,8 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0" xfId="1"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -197,8 +210,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Итог" xfId="1" builtinId="25"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -562,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
@@ -570,14 +583,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.265625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="46.73046875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.1328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.86328125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="26.73046875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="27.265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="46.73046875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.3984375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="26.1328125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.86328125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="26.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -598,17 +611,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
@@ -617,7 +632,9 @@
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
